--- a/www/ig/nos/CodeSystem-TRE-R210-ActeSpecifique.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R210-ActeSpecifique.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="2795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4247" uniqueCount="2821">
   <si>
     <t>Property</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.3.3.11</t>
+    <t>urn:oid:1.2.250.1.213.3.3.11</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T12:00:00+01:00</t>
+    <t>2024-01-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1246,7 +1246,7 @@
     <t>0182</t>
   </si>
   <si>
-    <t>Education thérapeutique - école de l'asthme</t>
+    <t>Education thérapeutique labellisée du patient asthmatique (école de l'asthme)</t>
   </si>
   <si>
     <t>0183</t>
@@ -3160,7 +3160,7 @@
     <t>0501</t>
   </si>
   <si>
-    <t>Vaccination internationale, conseil aux voyageurs (fièvre jaune, encéphalite...)</t>
+    <t>Vaccinations internationales et conseils aux voyageurs</t>
   </si>
   <si>
     <t>0502</t>
@@ -8368,7 +8368,7 @@
     <t>1381</t>
   </si>
   <si>
-    <t>Diagnostic complexe de l'endométriose</t>
+    <t>Diagnostic de l'endométriose complexe</t>
   </si>
   <si>
     <t>1382</t>
@@ -8399,6 +8399,84 @@
   </si>
   <si>
     <t>Suivi psychiatrique de la femme enceinte</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>Conseil en anti infectieux</t>
+  </si>
+  <si>
+    <t>1388</t>
+  </si>
+  <si>
+    <t>Gestion des complications de l'infection par le VIH</t>
+  </si>
+  <si>
+    <t>1389</t>
+  </si>
+  <si>
+    <t>Initiation et suivi thérapeutique des hépatites virales</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>Initiation, réévaluation et modification des anti rétroviraux</t>
+  </si>
+  <si>
+    <t>1391</t>
+  </si>
+  <si>
+    <t>Maladies vectorielles à tique (Lyme…)</t>
+  </si>
+  <si>
+    <t>1392</t>
+  </si>
+  <si>
+    <t>Prise en charge clinique des parasitoses</t>
+  </si>
+  <si>
+    <t>1393</t>
+  </si>
+  <si>
+    <t>Prise en charge des Infections chez les Immunodéprimés (ID)</t>
+  </si>
+  <si>
+    <t>1394</t>
+  </si>
+  <si>
+    <t>PEC diag et thérapeutique infections post-opé, sur prothèses, disp implantables</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>Bilan diagnostic psychiatrique</t>
+  </si>
+  <si>
+    <t>1396</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'anorexie précoce prépubère</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>Prise en charge de l'hyperphagie boulimique</t>
+  </si>
+  <si>
+    <t>1398</t>
+  </si>
+  <si>
+    <t>Admission directe non programmée - PA</t>
+  </si>
+  <si>
+    <t>1399</t>
+  </si>
+  <si>
+    <t>Unité de réanimation pédiatrique de recours</t>
   </si>
 </sst>
 </file>
@@ -8766,7 +8844,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D1387"/>
+  <dimension ref="A1:D1400"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25418,6 +25496,162 @@
       </c>
       <c r="D1387" s="2"/>
     </row>
+    <row r="1388">
+      <c r="A1388" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1388" t="s" s="2">
+        <v>2795</v>
+      </c>
+      <c r="C1388" t="s" s="2">
+        <v>2796</v>
+      </c>
+      <c r="D1388" s="2"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1389" t="s" s="2">
+        <v>2797</v>
+      </c>
+      <c r="C1389" t="s" s="2">
+        <v>2798</v>
+      </c>
+      <c r="D1389" s="2"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1390" t="s" s="2">
+        <v>2799</v>
+      </c>
+      <c r="C1390" t="s" s="2">
+        <v>2800</v>
+      </c>
+      <c r="D1390" s="2"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1391" t="s" s="2">
+        <v>2801</v>
+      </c>
+      <c r="C1391" t="s" s="2">
+        <v>2802</v>
+      </c>
+      <c r="D1391" s="2"/>
+    </row>
+    <row r="1392">
+      <c r="A1392" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1392" t="s" s="2">
+        <v>2803</v>
+      </c>
+      <c r="C1392" t="s" s="2">
+        <v>2804</v>
+      </c>
+      <c r="D1392" s="2"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1393" t="s" s="2">
+        <v>2805</v>
+      </c>
+      <c r="C1393" t="s" s="2">
+        <v>2806</v>
+      </c>
+      <c r="D1393" s="2"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1394" t="s" s="2">
+        <v>2807</v>
+      </c>
+      <c r="C1394" t="s" s="2">
+        <v>2808</v>
+      </c>
+      <c r="D1394" s="2"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1395" t="s" s="2">
+        <v>2809</v>
+      </c>
+      <c r="C1395" t="s" s="2">
+        <v>2810</v>
+      </c>
+      <c r="D1395" s="2"/>
+    </row>
+    <row r="1396">
+      <c r="A1396" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1396" t="s" s="2">
+        <v>2811</v>
+      </c>
+      <c r="C1396" t="s" s="2">
+        <v>2812</v>
+      </c>
+      <c r="D1396" s="2"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1397" t="s" s="2">
+        <v>2813</v>
+      </c>
+      <c r="C1397" t="s" s="2">
+        <v>2814</v>
+      </c>
+      <c r="D1397" s="2"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1398" t="s" s="2">
+        <v>2815</v>
+      </c>
+      <c r="C1398" t="s" s="2">
+        <v>2816</v>
+      </c>
+      <c r="D1398" s="2"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1399" t="s" s="2">
+        <v>2817</v>
+      </c>
+      <c r="C1399" t="s" s="2">
+        <v>2818</v>
+      </c>
+      <c r="D1399" s="2"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B1400" t="s" s="2">
+        <v>2819</v>
+      </c>
+      <c r="C1400" t="s" s="2">
+        <v>2820</v>
+      </c>
+      <c r="D1400" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
